--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,139 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>1.19541e+006</t>
+  </si>
+  <si>
+    <t>0.688752</t>
+  </si>
+  <si>
+    <t>1.39237</t>
+  </si>
+  <si>
+    <t>0.597875</t>
+  </si>
+  <si>
+    <t>1.67259</t>
+  </si>
+  <si>
+    <t>0.749929</t>
+  </si>
+  <si>
+    <t>0.298938</t>
+  </si>
+  <si>
+    <t>1.19591e+006</t>
+  </si>
+  <si>
+    <t>0.602778</t>
+  </si>
+  <si>
+    <t>1.65899</t>
+  </si>
+  <si>
+    <t>0.0993002</t>
+  </si>
+  <si>
+    <t>0.401852</t>
+  </si>
+  <si>
+    <t>1.19524e+006</t>
+  </si>
+  <si>
+    <t>0.596029</t>
+  </si>
+  <si>
+    <t>1.67777</t>
+  </si>
+  <si>
+    <t>0.923463</t>
+  </si>
+  <si>
+    <t>0.298015</t>
+  </si>
+  <si>
+    <t>330463</t>
+  </si>
+  <si>
+    <t>0.779224</t>
+  </si>
+  <si>
+    <t>1.27729</t>
+  </si>
+  <si>
+    <t>0.772571</t>
+  </si>
+  <si>
+    <t>1.29438</t>
+  </si>
+  <si>
+    <t>0.7954</t>
+  </si>
+  <si>
+    <t>0.386286</t>
+  </si>
+  <si>
+    <t>435506</t>
+  </si>
+  <si>
+    <t>0.796488</t>
+  </si>
+  <si>
+    <t>1.2367</t>
+  </si>
+  <si>
+    <t>0.602323</t>
+  </si>
+  <si>
+    <t>4.70864e+006</t>
+  </si>
+  <si>
+    <t>0.778051</t>
+  </si>
+  <si>
+    <t>1.26503</t>
+  </si>
+  <si>
+    <t>0.667484</t>
+  </si>
+  <si>
+    <t>0.398583</t>
+  </si>
+  <si>
+    <t>1.19141e+006</t>
+  </si>
+  <si>
+    <t>1.39143</t>
+  </si>
+  <si>
+    <t>0.001208</t>
+  </si>
+  <si>
+    <t>0.746009</t>
+  </si>
+  <si>
+    <t>1.32194</t>
+  </si>
+  <si>
+    <t>0.730014</t>
+  </si>
+  <si>
+    <t>1.36984</t>
+  </si>
+  <si>
+    <t>0.768944</t>
+  </si>
+  <si>
+    <t>0.486676</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +286,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +551,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +593,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>soluzione1</t>
   </si>
@@ -597,208 +597,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>1195408.1889779109</v>
+      </c>
+      <c r="C2">
+        <v>0.68875214933324347</v>
+      </c>
+      <c r="D2">
+        <v>1.3923739978298482</v>
+      </c>
+      <c r="E2">
+        <v>0.59787502246424862</v>
+      </c>
+      <c r="F2">
+        <v>1.6725903615747679</v>
+      </c>
+      <c r="G2">
+        <v>0.74992932006946444</v>
+      </c>
+      <c r="H2">
+        <v>0.29893751123212431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
+      <c r="B3">
+        <v>1195907.2250196715</v>
+      </c>
+      <c r="C3">
+        <v>0.68875214933324347</v>
+      </c>
+      <c r="D3">
+        <v>1.3923739978298482</v>
+      </c>
+      <c r="E3">
+        <v>0.60277765121528382</v>
+      </c>
+      <c r="F3">
+        <v>1.6589865234450225</v>
+      </c>
+      <c r="G3">
+        <v>0.099300231684364332</v>
+      </c>
+      <c r="H3">
+        <v>0.40185176747685591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="B4">
+        <v>1195235.8399550051</v>
+      </c>
+      <c r="C4">
+        <v>0.68875214933324347</v>
+      </c>
+      <c r="D4">
+        <v>1.3923739978298482</v>
+      </c>
+      <c r="E4">
+        <v>0.59602903359298209</v>
+      </c>
+      <c r="F4">
+        <v>1.6777706179375191</v>
+      </c>
+      <c r="G4">
+        <v>0.92346321141740229</v>
+      </c>
+      <c r="H4">
+        <v>0.2980145167964911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
+      <c r="B5">
+        <v>330462.73812783568</v>
+      </c>
+      <c r="C5">
+        <v>0.77922385474270406</v>
+      </c>
+      <c r="D5">
+        <v>1.2772930295526566</v>
+      </c>
+      <c r="E5">
+        <v>0.77257144473209427</v>
+      </c>
+      <c r="F5">
+        <v>1.2943786711490115</v>
+      </c>
+      <c r="G5">
+        <v>0.7953997366847485</v>
+      </c>
+      <c r="H5">
+        <v>0.38628572236604714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
+      <c r="B6">
+        <v>435506.42207860452</v>
+      </c>
+      <c r="C6">
+        <v>0.79648797851038222</v>
+      </c>
+      <c r="D6">
+        <v>1.236701798655977</v>
+      </c>
+      <c r="E6">
+        <v>0.59787502246424851</v>
+      </c>
+      <c r="F6">
+        <v>1.6725903615747679</v>
+      </c>
+      <c r="G6">
+        <v>0.60232258728447108</v>
+      </c>
+      <c r="H6">
+        <v>0.29893751123212425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="B7">
+        <v>4708642.575016534</v>
+      </c>
+      <c r="C7">
+        <v>0.77805146963576965</v>
+      </c>
+      <c r="D7">
+        <v>1.2650335791232998</v>
+      </c>
+      <c r="E7">
+        <v>0.59787502246424862</v>
+      </c>
+      <c r="F7">
+        <v>1.6725903615747679</v>
+      </c>
+      <c r="G7">
+        <v>0.66748430377567325</v>
+      </c>
+      <c r="H7">
+        <v>0.39858334830949904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
+      <c r="B8">
+        <v>1191407.8955588208</v>
+      </c>
+      <c r="C8">
+        <v>0.68875214933324347</v>
+      </c>
+      <c r="D8">
+        <v>1.3914286601988286</v>
+      </c>
+      <c r="E8">
+        <v>0.59787502246424862</v>
+      </c>
+      <c r="F8">
+        <v>1.6725903615747681</v>
+      </c>
+      <c r="G8">
+        <v>0.0012080013819975924</v>
+      </c>
+      <c r="H8">
+        <v>0.39858334830949904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
+      <c r="B9">
+        <v>330462.73812783568</v>
+      </c>
+      <c r="C9">
+        <v>0.74600863490110725</v>
+      </c>
+      <c r="D9">
+        <v>1.3219367226870977</v>
+      </c>
+      <c r="E9">
+        <v>0.7300143380672186</v>
+      </c>
+      <c r="F9">
+        <v>1.3698361084901343</v>
+      </c>
+      <c r="G9">
+        <v>0.76894366442802664</v>
+      </c>
+      <c r="H9">
+        <v>0.4866762253781457</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/DMU/dmu-32.xlsx
@@ -616,7 +616,7 @@
         <v>0.74992932006946444</v>
       </c>
       <c r="H2">
-        <v>0.29893751123212431</v>
+        <v>0.59787502246424862</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
         <v>0.099300231684364332</v>
       </c>
       <c r="H3">
-        <v>0.40185176747685591</v>
+        <v>0.60277765121528382</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>0.92346321141740229</v>
       </c>
       <c r="H4">
-        <v>0.2980145167964911</v>
+        <v>0.5960290335929822</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
         <v>0.7953997366847485</v>
       </c>
       <c r="H5">
-        <v>0.38628572236604714</v>
+        <v>0.77257144473209427</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         <v>0.60232258728447108</v>
       </c>
       <c r="H6">
-        <v>0.29893751123212425</v>
+        <v>0.59787502246424851</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +746,7 @@
         <v>0.66748430377567325</v>
       </c>
       <c r="H7">
-        <v>0.39858334830949904</v>
+        <v>0.59787502246424862</v>
       </c>
     </row>
     <row r="8">
@@ -772,7 +772,7 @@
         <v>0.0012080013819975924</v>
       </c>
       <c r="H8">
-        <v>0.39858334830949904</v>
+        <v>0.59787502246424862</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +798,7 @@
         <v>0.76894366442802664</v>
       </c>
       <c r="H9">
-        <v>0.4866762253781457</v>
+        <v>0.7300143380672186</v>
       </c>
     </row>
   </sheetData>
